--- a/migforecasting/clustering/examples for improv test.xlsx
+++ b/migforecasting/clustering/examples for improv test.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
+    <sheet name="examples abs (for model)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>oktmo</t>
   </si>
@@ -178,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +191,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -335,6 +345,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -619,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,4 +2669,2041 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="20" max="21" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>22719000</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>-140</v>
+      </c>
+      <c r="F2" s="11">
+        <v>17275</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2414</v>
+      </c>
+      <c r="H2" s="11">
+        <v>19887.443500000001</v>
+      </c>
+      <c r="I2" s="11">
+        <v>8104.9999999999982</v>
+      </c>
+      <c r="J2" s="11">
+        <v>473.99999999999983</v>
+      </c>
+      <c r="K2" s="11">
+        <v>729883.93608999986</v>
+      </c>
+      <c r="L2" s="11">
+        <v>39.4</v>
+      </c>
+      <c r="M2" s="11">
+        <v>44.999999999999716</v>
+      </c>
+      <c r="N2" s="11">
+        <v>7.99999999999996</v>
+      </c>
+      <c r="O2" s="11">
+        <v>296.89999999999964</v>
+      </c>
+      <c r="P2" s="11">
+        <v>32143.999999999978</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>60102.41</v>
+      </c>
+      <c r="R2" s="11">
+        <v>550648.19779999938</v>
+      </c>
+      <c r="S2" s="11">
+        <v>22.999999999999957</v>
+      </c>
+      <c r="T2" s="11">
+        <v>946</v>
+      </c>
+      <c r="U2" s="11">
+        <v>236233.5437799996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>3639000</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>-476</v>
+      </c>
+      <c r="F3" s="11">
+        <v>65842</v>
+      </c>
+      <c r="G3" s="11">
+        <v>10892</v>
+      </c>
+      <c r="H3" s="11">
+        <v>21988.19528</v>
+      </c>
+      <c r="I3" s="11">
+        <v>37427.899999999994</v>
+      </c>
+      <c r="J3" s="11">
+        <v>807.99999999999966</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2824760.7281099996</v>
+      </c>
+      <c r="L3" s="11">
+        <v>25</v>
+      </c>
+      <c r="M3" s="11">
+        <v>78.999999999999503</v>
+      </c>
+      <c r="N3" s="11">
+        <v>242.99999999999901</v>
+      </c>
+      <c r="O3" s="11">
+        <v>632.49999999999932</v>
+      </c>
+      <c r="P3" s="11">
+        <v>959880.00000000023</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>322825.61999999994</v>
+      </c>
+      <c r="R3" s="11">
+        <v>12665201.631199995</v>
+      </c>
+      <c r="S3" s="11">
+        <v>25.999999999999947</v>
+      </c>
+      <c r="T3" s="11">
+        <v>3185</v>
+      </c>
+      <c r="U3" s="11">
+        <v>12405299.012639996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3657000</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>-898</v>
+      </c>
+      <c r="F4" s="11">
+        <v>110482</v>
+      </c>
+      <c r="G4" s="11">
+        <v>18706.999999999996</v>
+      </c>
+      <c r="H4" s="11">
+        <v>21442.174780000001</v>
+      </c>
+      <c r="I4" s="11">
+        <v>71187.999999999971</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3068.9999999999986</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1434081.5877000005</v>
+      </c>
+      <c r="L4" s="11">
+        <v>24.9</v>
+      </c>
+      <c r="M4" s="11">
+        <v>208.99999999999864</v>
+      </c>
+      <c r="N4" s="11">
+        <v>249.99999999999895</v>
+      </c>
+      <c r="O4" s="11">
+        <v>760.29999999999905</v>
+      </c>
+      <c r="P4" s="11">
+        <v>82717.999999999985</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>330035.92</v>
+      </c>
+      <c r="R4" s="11">
+        <v>11480639.036999995</v>
+      </c>
+      <c r="S4" s="11">
+        <v>29.999999999999915</v>
+      </c>
+      <c r="T4" s="11">
+        <v>4768.9999999999991</v>
+      </c>
+      <c r="U4" s="11">
+        <v>15406913.946689995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>14625000</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>-166</v>
+      </c>
+      <c r="F5" s="11">
+        <v>18562</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3694.0000000000009</v>
+      </c>
+      <c r="H5" s="11">
+        <v>21712.38264</v>
+      </c>
+      <c r="I5" s="11">
+        <v>8165.7999999999993</v>
+      </c>
+      <c r="J5" s="11">
+        <v>567.99999999999966</v>
+      </c>
+      <c r="K5" s="11">
+        <v>479171.98727999994</v>
+      </c>
+      <c r="L5" s="11">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M5" s="11">
+        <v>94.999999999999403</v>
+      </c>
+      <c r="N5" s="11">
+        <v>41.999999999999844</v>
+      </c>
+      <c r="O5" s="11">
+        <v>556.39999999999964</v>
+      </c>
+      <c r="P5" s="11">
+        <v>14808.999999999978</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>36416.79</v>
+      </c>
+      <c r="R5" s="11">
+        <v>4968189.5378400004</v>
+      </c>
+      <c r="S5" s="11">
+        <v>23.99999999999994</v>
+      </c>
+      <c r="T5" s="11">
+        <v>958.99999999999977</v>
+      </c>
+      <c r="U5" s="11">
+        <v>1727129.7467999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>18610000</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-210</v>
+      </c>
+      <c r="F6" s="11">
+        <v>28673</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4213</v>
+      </c>
+      <c r="H6" s="11">
+        <v>18718.034879999999</v>
+      </c>
+      <c r="I6" s="11">
+        <v>15706.399999999994</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1185.9999999999993</v>
+      </c>
+      <c r="K6" s="11">
+        <v>912846.19063000008</v>
+      </c>
+      <c r="L6" s="11">
+        <v>36.5</v>
+      </c>
+      <c r="M6" s="11">
+        <v>107.99999999999929</v>
+      </c>
+      <c r="N6" s="11">
+        <v>91.999999999999645</v>
+      </c>
+      <c r="O6" s="11">
+        <v>873.59999999999934</v>
+      </c>
+      <c r="P6" s="11">
+        <v>127582.99999999996</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>56902.999999999993</v>
+      </c>
+      <c r="R6" s="11">
+        <v>5517088.4192999983</v>
+      </c>
+      <c r="S6" s="11">
+        <v>38.999999999999915</v>
+      </c>
+      <c r="T6" s="11">
+        <v>1113.0000000000002</v>
+      </c>
+      <c r="U6" s="11">
+        <v>6142682.3205399979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1703000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-291</v>
+      </c>
+      <c r="F7" s="11">
+        <v>28434</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5725</v>
+      </c>
+      <c r="H7" s="11">
+        <v>20773.66617</v>
+      </c>
+      <c r="I7" s="11">
+        <v>26868.199999999993</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1111.9999999999993</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1674021.9106300003</v>
+      </c>
+      <c r="L7" s="11">
+        <v>22.6</v>
+      </c>
+      <c r="M7" s="11">
+        <v>72.999999999999545</v>
+      </c>
+      <c r="N7" s="11">
+        <v>113.99999999999952</v>
+      </c>
+      <c r="O7" s="11">
+        <v>350.99999999999966</v>
+      </c>
+      <c r="P7" s="11">
+        <v>10711.999999999955</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>7011.1399999999894</v>
+      </c>
+      <c r="R7" s="11">
+        <v>49916.868199999284</v>
+      </c>
+      <c r="S7" s="11">
+        <v>1.9999999999999927</v>
+      </c>
+      <c r="T7" s="11">
+        <v>1617.9999999999998</v>
+      </c>
+      <c r="U7" s="11">
+        <v>5355232.274249997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1716000</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-284</v>
+      </c>
+      <c r="F8" s="11">
+        <v>139565</v>
+      </c>
+      <c r="G8" s="11">
+        <v>24379.999999999993</v>
+      </c>
+      <c r="H8" s="11">
+        <v>19874.44096</v>
+      </c>
+      <c r="I8" s="11">
+        <v>207240.69999999998</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1859.9999999999984</v>
+      </c>
+      <c r="K8" s="11">
+        <v>5926777.3109299988</v>
+      </c>
+      <c r="L8" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="M8" s="11">
+        <v>311.9999999999979</v>
+      </c>
+      <c r="N8" s="11">
+        <v>386.99999999999841</v>
+      </c>
+      <c r="O8" s="11">
+        <v>962.79999999999893</v>
+      </c>
+      <c r="P8" s="11">
+        <v>8125.9999999999918</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>44861.889999999948</v>
+      </c>
+      <c r="R8" s="11">
+        <v>199155.57099999874</v>
+      </c>
+      <c r="S8" s="11">
+        <v>33.999999999999922</v>
+      </c>
+      <c r="T8" s="11">
+        <v>6249</v>
+      </c>
+      <c r="U8" s="11">
+        <v>15178335.903369986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>10615000</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-274</v>
+      </c>
+      <c r="F9" s="11">
+        <v>19887.999999999989</v>
+      </c>
+      <c r="G9" s="11">
+        <v>4481.9999999999982</v>
+      </c>
+      <c r="H9" s="11">
+        <v>37917.462079999998</v>
+      </c>
+      <c r="I9" s="11">
+        <v>14558.999999999989</v>
+      </c>
+      <c r="J9" s="11">
+        <v>609.99999999999943</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1282627.8831299993</v>
+      </c>
+      <c r="L9" s="11">
+        <v>29.1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>67.999999999999545</v>
+      </c>
+      <c r="N9" s="11">
+        <v>114.99999999999949</v>
+      </c>
+      <c r="O9" s="11">
+        <v>358.69999999999959</v>
+      </c>
+      <c r="P9" s="11">
+        <v>4886.9999999999818</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>8000.4999999999918</v>
+      </c>
+      <c r="R9" s="11">
+        <v>794969.88139999914</v>
+      </c>
+      <c r="S9" s="11">
+        <v>14.999999999999956</v>
+      </c>
+      <c r="T9" s="11">
+        <v>1094.9999999999995</v>
+      </c>
+      <c r="U9" s="11">
+        <v>5006117.3553799978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>10710000</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>-340</v>
+      </c>
+      <c r="F10" s="11">
+        <v>65776</v>
+      </c>
+      <c r="G10" s="11">
+        <v>14881</v>
+      </c>
+      <c r="H10" s="11">
+        <v>35840.741759999997</v>
+      </c>
+      <c r="I10" s="11">
+        <v>52247.999999999993</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2190.9999999999991</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2740590.23832</v>
+      </c>
+      <c r="L10" s="11">
+        <v>22.8</v>
+      </c>
+      <c r="M10" s="11">
+        <v>240.99999999999852</v>
+      </c>
+      <c r="N10" s="11">
+        <v>194.99999999999918</v>
+      </c>
+      <c r="O10" s="11">
+        <v>225.39999999999938</v>
+      </c>
+      <c r="P10" s="11">
+        <v>2243.9999999999036</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>11420.029999999982</v>
+      </c>
+      <c r="R10" s="11">
+        <v>169468.43350463765</v>
+      </c>
+      <c r="S10" s="11">
+        <v>5.9999999999999716</v>
+      </c>
+      <c r="T10" s="11">
+        <v>3302</v>
+      </c>
+      <c r="U10" s="11">
+        <v>8353078.9401600007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>18715000</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>-825</v>
+      </c>
+      <c r="F11" s="11">
+        <v>108665</v>
+      </c>
+      <c r="G11" s="11">
+        <v>17434.000000000004</v>
+      </c>
+      <c r="H11" s="11">
+        <v>19751.678240000001</v>
+      </c>
+      <c r="I11" s="11">
+        <v>72518.999999999985</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1824.9999999999995</v>
+      </c>
+      <c r="K11" s="11">
+        <v>6519507.7608800009</v>
+      </c>
+      <c r="L11" s="11">
+        <v>26.6</v>
+      </c>
+      <c r="M11" s="11">
+        <v>270.99999999999818</v>
+      </c>
+      <c r="N11" s="11">
+        <v>292.99999999999886</v>
+      </c>
+      <c r="O11" s="11">
+        <v>225.39999999999932</v>
+      </c>
+      <c r="P11" s="11">
+        <v>2036.9999999998449</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>25366.999999999985</v>
+      </c>
+      <c r="R11" s="11">
+        <v>245884.47409999909</v>
+      </c>
+      <c r="S11" s="11">
+        <v>33.999999999999908</v>
+      </c>
+      <c r="T11" s="11">
+        <v>5712.9999999999991</v>
+      </c>
+      <c r="U11" s="11">
+        <v>12403303.24303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1606000</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-168</v>
+      </c>
+      <c r="F12" s="11">
+        <v>9622.9999999999964</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1207.9999999999993</v>
+      </c>
+      <c r="H12" s="11">
+        <v>16635.344249999991</v>
+      </c>
+      <c r="I12" s="11">
+        <v>3746.5999999999967</v>
+      </c>
+      <c r="J12" s="11">
+        <v>44.99999999999995</v>
+      </c>
+      <c r="K12" s="11">
+        <v>79286.091859999928</v>
+      </c>
+      <c r="L12" s="11">
+        <v>30.1</v>
+      </c>
+      <c r="M12" s="11">
+        <v>32.999999999999773</v>
+      </c>
+      <c r="N12" s="11">
+        <v>9.9999999999999485</v>
+      </c>
+      <c r="O12" s="11">
+        <v>212.39999999999975</v>
+      </c>
+      <c r="P12" s="11">
+        <v>22989.999999999982</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>7487.889999999994</v>
+      </c>
+      <c r="R12" s="11">
+        <v>613356.16829999944</v>
+      </c>
+      <c r="S12" s="11">
+        <v>14.999999999999956</v>
+      </c>
+      <c r="T12" s="11">
+        <v>672.99999999999989</v>
+      </c>
+      <c r="U12" s="11">
+        <v>232900.09079999954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>1620000</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-174</v>
+      </c>
+      <c r="F13" s="11">
+        <v>16685</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2386</v>
+      </c>
+      <c r="H13" s="11">
+        <v>16273.3732</v>
+      </c>
+      <c r="I13" s="11">
+        <v>10592.199999999999</v>
+      </c>
+      <c r="J13" s="11">
+        <v>377.99999999999972</v>
+      </c>
+      <c r="K13" s="11">
+        <v>398404.10683999996</v>
+      </c>
+      <c r="L13" s="11">
+        <v>26.4</v>
+      </c>
+      <c r="M13" s="11">
+        <v>27.999999999999833</v>
+      </c>
+      <c r="N13" s="11">
+        <v>22.999999999999915</v>
+      </c>
+      <c r="O13" s="11">
+        <v>800.99999999999955</v>
+      </c>
+      <c r="P13" s="11">
+        <v>112136.99999999997</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>9244.5999999999931</v>
+      </c>
+      <c r="R13" s="11">
+        <v>1610842.1835999999</v>
+      </c>
+      <c r="S13" s="11">
+        <v>21.999999999999957</v>
+      </c>
+      <c r="T13" s="11">
+        <v>624.00000000000011</v>
+      </c>
+      <c r="U13" s="11">
+        <v>1492496.0792400001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>1719000</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-193</v>
+      </c>
+      <c r="F14" s="11">
+        <v>40956</v>
+      </c>
+      <c r="G14" s="11">
+        <v>6906.9999999999973</v>
+      </c>
+      <c r="H14" s="11">
+        <v>16179.493109999999</v>
+      </c>
+      <c r="I14" s="11">
+        <v>45679.399999999994</v>
+      </c>
+      <c r="J14" s="11">
+        <v>943.99999999999955</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1135992.2059199996</v>
+      </c>
+      <c r="L14" s="11">
+        <v>22.9</v>
+      </c>
+      <c r="M14" s="11">
+        <v>86.999999999999389</v>
+      </c>
+      <c r="N14" s="11">
+        <v>196.9999999999992</v>
+      </c>
+      <c r="O14" s="11">
+        <v>2450.9999999999986</v>
+      </c>
+      <c r="P14" s="11">
+        <v>49269.999999999935</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>10475.609999999997</v>
+      </c>
+      <c r="R14" s="11">
+        <v>832899.14939999871</v>
+      </c>
+      <c r="S14" s="11">
+        <v>26.99999999999994</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="U14" s="11">
+        <v>1961160.027659998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4621000</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11">
+        <v>-121</v>
+      </c>
+      <c r="F15" s="11">
+        <v>24184.999999999989</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4568.9999999999982</v>
+      </c>
+      <c r="H15" s="11">
+        <v>21418.87329</v>
+      </c>
+      <c r="I15" s="11">
+        <v>4933.5999999999949</v>
+      </c>
+      <c r="J15" s="11">
+        <v>130.99999999999977</v>
+      </c>
+      <c r="K15" s="11">
+        <v>143687.26248999985</v>
+      </c>
+      <c r="L15" s="11">
+        <v>22.3</v>
+      </c>
+      <c r="M15" s="11">
+        <v>103.9999999999993</v>
+      </c>
+      <c r="N15" s="11">
+        <v>2.9999999999999765</v>
+      </c>
+      <c r="O15" s="11">
+        <v>316.99999999999955</v>
+      </c>
+      <c r="P15" s="11">
+        <v>106497.99999999996</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>19137.909999999989</v>
+      </c>
+      <c r="R15" s="11">
+        <v>3427876.6054999977</v>
+      </c>
+      <c r="S15" s="11">
+        <v>50.999999999999886</v>
+      </c>
+      <c r="T15" s="11">
+        <v>1217.9999999999995</v>
+      </c>
+      <c r="U15" s="11">
+        <v>3524494.8488999987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>36616000</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-158</v>
+      </c>
+      <c r="F16" s="11">
+        <v>12565.999999999991</v>
+      </c>
+      <c r="G16" s="11">
+        <v>2093.9999999999991</v>
+      </c>
+      <c r="H16" s="11">
+        <v>16955.84604</v>
+      </c>
+      <c r="I16" s="11">
+        <v>7192.4999999999927</v>
+      </c>
+      <c r="J16" s="11">
+        <v>449.99999999999943</v>
+      </c>
+      <c r="K16" s="11">
+        <v>298227.95619999972</v>
+      </c>
+      <c r="L16" s="11">
+        <v>30.03</v>
+      </c>
+      <c r="M16" s="11">
+        <v>59.999999999999581</v>
+      </c>
+      <c r="N16" s="11">
+        <v>14.999999999999922</v>
+      </c>
+      <c r="O16" s="11">
+        <v>647.79999999999916</v>
+      </c>
+      <c r="P16" s="11">
+        <v>25719.999999999982</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>20804.14999999998</v>
+      </c>
+      <c r="R16" s="11">
+        <v>1533618.0888999989</v>
+      </c>
+      <c r="S16" s="11">
+        <v>21.999999999999932</v>
+      </c>
+      <c r="T16" s="11">
+        <v>676.99999999999955</v>
+      </c>
+      <c r="U16" s="11">
+        <v>1868542.2159599983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>1641000</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-76</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4183.9999999999918</v>
+      </c>
+      <c r="G17" s="11">
+        <v>788.99999999999841</v>
+      </c>
+      <c r="H17" s="11">
+        <v>19068.8688</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1820.9999999999964</v>
+      </c>
+      <c r="J17" s="11">
+        <v>79.999999999999787</v>
+      </c>
+      <c r="K17" s="11">
+        <v>57968.611199999868</v>
+      </c>
+      <c r="L17" s="11">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M17" s="11">
+        <v>12.999999999999892</v>
+      </c>
+      <c r="N17" s="11">
+        <v>1.9999999999999847</v>
+      </c>
+      <c r="O17" s="11">
+        <v>81.399999999999764</v>
+      </c>
+      <c r="P17" s="11">
+        <v>32010.999999999935</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>1244.4599999999969</v>
+      </c>
+      <c r="R17" s="11">
+        <v>838591.639199998</v>
+      </c>
+      <c r="S17" s="11">
+        <v>9.9999999999999591</v>
+      </c>
+      <c r="T17" s="11">
+        <v>251.99999999999952</v>
+      </c>
+      <c r="U17" s="11">
+        <v>750105.80711999815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>3630000</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-953</v>
+      </c>
+      <c r="F18" s="11">
+        <v>95828.000000000015</v>
+      </c>
+      <c r="G18" s="11">
+        <v>13438.999999999998</v>
+      </c>
+      <c r="H18" s="11">
+        <v>21170.54232</v>
+      </c>
+      <c r="I18" s="11">
+        <v>70891.10000000002</v>
+      </c>
+      <c r="J18" s="11">
+        <v>2106.9999999999986</v>
+      </c>
+      <c r="K18" s="11">
+        <v>2932758.8092799997</v>
+      </c>
+      <c r="L18" s="11">
+        <v>27.2</v>
+      </c>
+      <c r="M18" s="11">
+        <v>193.99999999999883</v>
+      </c>
+      <c r="N18" s="11">
+        <v>221.99999999999912</v>
+      </c>
+      <c r="O18" s="11">
+        <v>793.09999999999945</v>
+      </c>
+      <c r="P18" s="11">
+        <v>1149829.0000000002</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>72866.099999999977</v>
+      </c>
+      <c r="R18" s="11">
+        <v>9782808.4583999943</v>
+      </c>
+      <c r="S18" s="11">
+        <v>26.999999999999911</v>
+      </c>
+      <c r="T18" s="11">
+        <v>3887.9999999999995</v>
+      </c>
+      <c r="U18" s="11">
+        <v>9535558.9931999948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18652000</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3</v>
+      </c>
+      <c r="E19" s="11">
+        <v>-188</v>
+      </c>
+      <c r="F19" s="11">
+        <v>17569.999999999989</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1887.9999999999989</v>
+      </c>
+      <c r="H19" s="11">
+        <v>18376.923200000001</v>
+      </c>
+      <c r="I19" s="11">
+        <v>8486.1999999999953</v>
+      </c>
+      <c r="J19" s="11">
+        <v>234.99999999999972</v>
+      </c>
+      <c r="K19" s="11">
+        <v>341592.53969999967</v>
+      </c>
+      <c r="L19" s="11">
+        <v>26.3</v>
+      </c>
+      <c r="M19" s="11">
+        <v>155.99999999999895</v>
+      </c>
+      <c r="N19" s="11">
+        <v>56.999999999999723</v>
+      </c>
+      <c r="O19" s="11">
+        <v>389.39999999999952</v>
+      </c>
+      <c r="P19" s="11">
+        <v>182951.9999999998</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>19100.999999999978</v>
+      </c>
+      <c r="R19" s="11">
+        <v>2366184.0724999984</v>
+      </c>
+      <c r="S19" s="11">
+        <v>24.999999999999932</v>
+      </c>
+      <c r="T19" s="11">
+        <v>790.99999999999943</v>
+      </c>
+      <c r="U19" s="11">
+        <v>322435.87408999965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>22712000</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11">
+        <v>-483</v>
+      </c>
+      <c r="F20" s="11">
+        <v>120926</v>
+      </c>
+      <c r="G20" s="11">
+        <v>20037.999999999996</v>
+      </c>
+      <c r="H20" s="11">
+        <v>25152.816680000011</v>
+      </c>
+      <c r="I20" s="11">
+        <v>72911.599999999991</v>
+      </c>
+      <c r="J20" s="11">
+        <v>2549.9999999999977</v>
+      </c>
+      <c r="K20" s="11">
+        <v>4713511.9352799999</v>
+      </c>
+      <c r="L20" s="11">
+        <v>29.9</v>
+      </c>
+      <c r="M20" s="11">
+        <v>195.99999999999872</v>
+      </c>
+      <c r="N20" s="11">
+        <v>248.99999999999895</v>
+      </c>
+      <c r="O20" s="11">
+        <v>1123.1999999999985</v>
+      </c>
+      <c r="P20" s="11">
+        <v>1264806.9999999993</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>104307.92999999998</v>
+      </c>
+      <c r="R20" s="11">
+        <v>2214641.3434399972</v>
+      </c>
+      <c r="S20" s="11">
+        <v>34.999999999999915</v>
+      </c>
+      <c r="T20" s="11">
+        <v>6308.9999999999991</v>
+      </c>
+      <c r="U20" s="11">
+        <v>26988496.705479994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>53725000</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11">
+        <v>-523</v>
+      </c>
+      <c r="F21" s="11">
+        <v>50473.999999999993</v>
+      </c>
+      <c r="G21" s="11">
+        <v>8680.9999999999982</v>
+      </c>
+      <c r="H21" s="11">
+        <v>19397.3076</v>
+      </c>
+      <c r="I21" s="11">
+        <v>32935.899999999994</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1673.9999999999982</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1330729.4930399999</v>
+      </c>
+      <c r="L21" s="11">
+        <v>25.1</v>
+      </c>
+      <c r="M21" s="11">
+        <v>158.99999999999895</v>
+      </c>
+      <c r="N21" s="11">
+        <v>184.99999999999918</v>
+      </c>
+      <c r="O21" s="11">
+        <v>386.19999999999953</v>
+      </c>
+      <c r="P21" s="11">
+        <v>810919.99999999977</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>182696</v>
+      </c>
+      <c r="R21" s="11">
+        <v>5519372.8535999991</v>
+      </c>
+      <c r="S21" s="11">
+        <v>38.999999999999908</v>
+      </c>
+      <c r="T21" s="11">
+        <v>2499.9999999999995</v>
+      </c>
+      <c r="U21" s="11">
+        <v>3749387.5015199976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>1706000</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11">
+        <v>-199</v>
+      </c>
+      <c r="F22" s="11">
+        <v>47578.999999999993</v>
+      </c>
+      <c r="G22" s="11">
+        <v>11633.999999999998</v>
+      </c>
+      <c r="H22" s="11">
+        <v>24954.799999999999</v>
+      </c>
+      <c r="I22" s="11">
+        <v>37654.999999999985</v>
+      </c>
+      <c r="J22" s="11">
+        <v>898.99999999999943</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1350652</v>
+      </c>
+      <c r="L22" s="11">
+        <v>23.5</v>
+      </c>
+      <c r="M22" s="11">
+        <v>69.999999999999503</v>
+      </c>
+      <c r="N22" s="11">
+        <v>171.99999999999929</v>
+      </c>
+      <c r="O22" s="11">
+        <v>201.0999999999998</v>
+      </c>
+      <c r="P22" s="11">
+        <v>14598.999999999955</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>16640.329999999991</v>
+      </c>
+      <c r="R22" s="11">
+        <v>232538.99999999936</v>
+      </c>
+      <c r="S22" s="11">
+        <v>10.999999999999968</v>
+      </c>
+      <c r="T22" s="11">
+        <v>2737.9999999999991</v>
+      </c>
+      <c r="U22" s="11">
+        <v>32418265.199999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>5634000</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="11">
+        <v>4</v>
+      </c>
+      <c r="E23" s="11">
+        <v>-310</v>
+      </c>
+      <c r="F23" s="11">
+        <v>28553</v>
+      </c>
+      <c r="G23" s="11">
+        <v>6935.9999999999991</v>
+      </c>
+      <c r="H23" s="11">
+        <v>34591.617420000002</v>
+      </c>
+      <c r="I23" s="11">
+        <v>13338.599999999997</v>
+      </c>
+      <c r="J23" s="11">
+        <v>494.99999999999943</v>
+      </c>
+      <c r="K23" s="11">
+        <v>139069.51849999998</v>
+      </c>
+      <c r="L23" s="11">
+        <v>22.9</v>
+      </c>
+      <c r="M23" s="11">
+        <v>76.999999999999531</v>
+      </c>
+      <c r="N23" s="11">
+        <v>124.99999999999952</v>
+      </c>
+      <c r="O23" s="11">
+        <v>169.2999999999999</v>
+      </c>
+      <c r="P23" s="11">
+        <v>19625.999999999978</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>10308.619999999997</v>
+      </c>
+      <c r="R23" s="11">
+        <v>429026.07919999963</v>
+      </c>
+      <c r="S23" s="11">
+        <v>11.999999999999972</v>
+      </c>
+      <c r="T23" s="11">
+        <v>2062</v>
+      </c>
+      <c r="U23" s="11">
+        <v>13315114.298400002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>25738000</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="11">
+        <v>4</v>
+      </c>
+      <c r="E24" s="11">
+        <v>-236</v>
+      </c>
+      <c r="F24" s="11">
+        <v>79746</v>
+      </c>
+      <c r="G24" s="11">
+        <v>16843</v>
+      </c>
+      <c r="H24" s="11">
+        <v>35339.908029999999</v>
+      </c>
+      <c r="I24" s="11">
+        <v>73491.599999999991</v>
+      </c>
+      <c r="J24" s="11">
+        <v>2645.9999999999991</v>
+      </c>
+      <c r="K24" s="11">
+        <v>2006637.54357</v>
+      </c>
+      <c r="L24" s="11">
+        <v>24.6</v>
+      </c>
+      <c r="M24" s="11">
+        <v>164.99999999999895</v>
+      </c>
+      <c r="N24" s="11">
+        <v>232.99999999999903</v>
+      </c>
+      <c r="O24" s="11">
+        <v>188.49999999999935</v>
+      </c>
+      <c r="P24" s="11">
+        <v>1592.9999999998829</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>23405.999999999971</v>
+      </c>
+      <c r="R24" s="11">
+        <v>313421.54109999974</v>
+      </c>
+      <c r="S24" s="11">
+        <v>7.9999999999999671</v>
+      </c>
+      <c r="T24" s="11">
+        <v>5536</v>
+      </c>
+      <c r="U24" s="11">
+        <v>37484508.028549999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>36704000</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="11">
+        <v>4</v>
+      </c>
+      <c r="E25" s="11">
+        <v>-472</v>
+      </c>
+      <c r="F25" s="11">
+        <v>57687</v>
+      </c>
+      <c r="G25" s="11">
+        <v>11292</v>
+      </c>
+      <c r="H25" s="11">
+        <v>23845.612519999999</v>
+      </c>
+      <c r="I25" s="11">
+        <v>33352.599999999984</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1263.9999999999993</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1716389.6294400003</v>
+      </c>
+      <c r="L25" s="11">
+        <v>29.41</v>
+      </c>
+      <c r="M25" s="11">
+        <v>70.999999999999531</v>
+      </c>
+      <c r="N25" s="11">
+        <v>230.99999999999903</v>
+      </c>
+      <c r="O25" s="11">
+        <v>233.29999999999964</v>
+      </c>
+      <c r="P25" s="11">
+        <v>383.99999999993003</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>37867.999999999993</v>
+      </c>
+      <c r="R25" s="11">
+        <v>322803.30879999872</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0.99999999999999423</v>
+      </c>
+      <c r="T25" s="11">
+        <v>2426.9999999999995</v>
+      </c>
+      <c r="U25" s="11">
+        <v>32139963.465120006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>65753000</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="11">
+        <v>4</v>
+      </c>
+      <c r="E26" s="11">
+        <v>-402</v>
+      </c>
+      <c r="F26" s="11">
+        <v>141368</v>
+      </c>
+      <c r="G26" s="11">
+        <v>33537</v>
+      </c>
+      <c r="H26" s="11">
+        <v>27126.22694</v>
+      </c>
+      <c r="I26" s="11">
+        <v>58200</v>
+      </c>
+      <c r="J26" s="11">
+        <v>2876.9999999999973</v>
+      </c>
+      <c r="K26" s="11">
+        <v>10541809.012150001</v>
+      </c>
+      <c r="L26" s="11">
+        <v>31.4</v>
+      </c>
+      <c r="M26" s="11">
+        <v>306.99999999999795</v>
+      </c>
+      <c r="N26" s="11">
+        <v>198.99999999999918</v>
+      </c>
+      <c r="O26" s="11">
+        <v>474.69999999999879</v>
+      </c>
+      <c r="P26" s="11">
+        <v>595570.99999999977</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>59771.349999999991</v>
+      </c>
+      <c r="R26" s="11">
+        <v>1632754.1328999992</v>
+      </c>
+      <c r="S26" s="11">
+        <v>90.999999999999801</v>
+      </c>
+      <c r="T26" s="11">
+        <v>9371</v>
+      </c>
+      <c r="U26" s="11">
+        <v>79424596.731749997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>1625000</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="11">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11">
+        <v>-294</v>
+      </c>
+      <c r="F27" s="11">
+        <v>23671.999999999989</v>
+      </c>
+      <c r="G27" s="11">
+        <v>2819.9999999999991</v>
+      </c>
+      <c r="H27" s="11">
+        <v>17545.93204</v>
+      </c>
+      <c r="I27" s="11">
+        <v>16399.19999999999</v>
+      </c>
+      <c r="J27" s="11">
+        <v>346.9999999999996</v>
+      </c>
+      <c r="K27" s="11">
+        <v>573514.04293999961</v>
+      </c>
+      <c r="L27" s="11">
+        <v>28</v>
+      </c>
+      <c r="M27" s="11">
+        <v>64.999999999999574</v>
+      </c>
+      <c r="N27" s="11">
+        <v>59.999999999999716</v>
+      </c>
+      <c r="O27" s="11">
+        <v>382.49999999999949</v>
+      </c>
+      <c r="P27" s="11">
+        <v>39639.999999999935</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>9314.3999999999924</v>
+      </c>
+      <c r="R27" s="11">
+        <v>3234408.7671999987</v>
+      </c>
+      <c r="S27" s="11">
+        <v>17.99999999999995</v>
+      </c>
+      <c r="T27" s="11">
+        <v>744.99999999999955</v>
+      </c>
+      <c r="U27" s="11">
+        <v>828015.21829999832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>3654000</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="11">
+        <v>5</v>
+      </c>
+      <c r="E28" s="11">
+        <v>-541</v>
+      </c>
+      <c r="F28" s="11">
+        <v>116468</v>
+      </c>
+      <c r="G28" s="11">
+        <v>21239.000000000004</v>
+      </c>
+      <c r="H28" s="11">
+        <v>23604.910929999998</v>
+      </c>
+      <c r="I28" s="11">
+        <v>64664.399999999987</v>
+      </c>
+      <c r="J28" s="11">
+        <v>2076.9999999999995</v>
+      </c>
+      <c r="K28" s="11">
+        <v>4676977.1911799992</v>
+      </c>
+      <c r="L28" s="11">
+        <v>30.2</v>
+      </c>
+      <c r="M28" s="11">
+        <v>300.99999999999807</v>
+      </c>
+      <c r="N28" s="11">
+        <v>303.99999999999869</v>
+      </c>
+      <c r="O28" s="11">
+        <v>783.79999999999882</v>
+      </c>
+      <c r="P28" s="11">
+        <v>202571.00000000003</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>87368.909999999974</v>
+      </c>
+      <c r="R28" s="11">
+        <v>8408723.8795999978</v>
+      </c>
+      <c r="S28" s="11">
+        <v>34.999999999999901</v>
+      </c>
+      <c r="T28" s="11">
+        <v>4502</v>
+      </c>
+      <c r="U28" s="11">
+        <v>19397519.885310002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>4722000</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="11">
+        <v>5</v>
+      </c>
+      <c r="E29" s="11">
+        <v>-192</v>
+      </c>
+      <c r="F29" s="11">
+        <v>64841.999999999993</v>
+      </c>
+      <c r="G29" s="11">
+        <v>15028.999999999996</v>
+      </c>
+      <c r="H29" s="11">
+        <v>25869.387780000001</v>
+      </c>
+      <c r="I29" s="11">
+        <v>17235.499999999989</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1123.9999999999986</v>
+      </c>
+      <c r="K29" s="11">
+        <v>866008.93850999954</v>
+      </c>
+      <c r="L29" s="11">
+        <v>23.8</v>
+      </c>
+      <c r="M29" s="11">
+        <v>124.99999999999919</v>
+      </c>
+      <c r="N29" s="11">
+        <v>194.99999999999915</v>
+      </c>
+      <c r="O29" s="11">
+        <v>235.39999999999975</v>
+      </c>
+      <c r="P29" s="11">
+        <v>2168.999999999995</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>22439.059999999987</v>
+      </c>
+      <c r="R29" s="11">
+        <v>259751.15039999882</v>
+      </c>
+      <c r="S29" s="11">
+        <v>11.999999999999948</v>
+      </c>
+      <c r="T29" s="11">
+        <v>3210.9999999999995</v>
+      </c>
+      <c r="U29" s="11">
+        <v>9430951.7147999946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>7726000</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11">
+        <v>-300</v>
+      </c>
+      <c r="F30" s="11">
+        <v>64100</v>
+      </c>
+      <c r="G30" s="11">
+        <v>9192</v>
+      </c>
+      <c r="H30" s="11">
+        <v>21205.026720000002</v>
+      </c>
+      <c r="I30" s="11">
+        <v>59994</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1042.9999999999993</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1194600.3487199994</v>
+      </c>
+      <c r="L30" s="11">
+        <v>24.81</v>
+      </c>
+      <c r="M30" s="11">
+        <v>140.99999999999912</v>
+      </c>
+      <c r="N30" s="11">
+        <v>92.999999999999559</v>
+      </c>
+      <c r="O30" s="11">
+        <v>563.59999999999923</v>
+      </c>
+      <c r="P30" s="11">
+        <v>35895.999999999993</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>57654.419999999991</v>
+      </c>
+      <c r="R30" s="11">
+        <v>8271274.1760000018</v>
+      </c>
+      <c r="S30" s="11">
+        <v>36.999999999999908</v>
+      </c>
+      <c r="T30" s="11">
+        <v>3089.9999999999995</v>
+      </c>
+      <c r="U30" s="11">
+        <v>7029925.2345599988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>60730000</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="11">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11">
+        <v>-429</v>
+      </c>
+      <c r="F31" s="11">
+        <v>105038</v>
+      </c>
+      <c r="G31" s="11">
+        <v>11442</v>
+      </c>
+      <c r="H31" s="11">
+        <v>18218.315640000001</v>
+      </c>
+      <c r="I31" s="11">
+        <v>69421.599999999991</v>
+      </c>
+      <c r="J31" s="11">
+        <v>79.999999999999517</v>
+      </c>
+      <c r="K31" s="11">
+        <v>3389505.0557000008</v>
+      </c>
+      <c r="L31" s="11">
+        <v>21.85</v>
+      </c>
+      <c r="M31" s="11">
+        <v>164.99999999999895</v>
+      </c>
+      <c r="N31" s="11">
+        <v>248.99999999999898</v>
+      </c>
+      <c r="O31" s="11">
+        <v>369.09999999999923</v>
+      </c>
+      <c r="P31" s="11">
+        <v>18256.999999999818</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>57789.999999999949</v>
+      </c>
+      <c r="R31" s="11">
+        <v>521260.11459999764</v>
+      </c>
+      <c r="S31" s="11">
+        <v>5.9999999999999627</v>
+      </c>
+      <c r="T31" s="11">
+        <v>3403</v>
+      </c>
+      <c r="U31" s="11">
+        <v>5939939.1027599983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/migforecasting/clustering/examples for improv test.xlsx
+++ b/migforecasting/clustering/examples for improv test.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
-    <sheet name="examples abs (for model)" sheetId="3" r:id="rId2"/>
+    <sheet name="examples abs" sheetId="3" r:id="rId2"/>
+    <sheet name="examples abs + changes" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
   <si>
     <t>oktmo</t>
   </si>
@@ -315,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -351,6 +352,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2675,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4706,4 +4713,2306 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>22719000</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>-140</v>
+      </c>
+      <c r="F2" s="14">
+        <v>17275</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2501.8274772741524</v>
+      </c>
+      <c r="H2" s="13">
+        <v>21679.803337394831</v>
+      </c>
+      <c r="I2" s="13">
+        <v>9990.9274654330093</v>
+      </c>
+      <c r="J2" s="13">
+        <v>580.08536423274654</v>
+      </c>
+      <c r="K2" s="13">
+        <v>1056927.9355371816</v>
+      </c>
+      <c r="L2" s="13">
+        <v>39.836295399999258</v>
+      </c>
+      <c r="M2" s="13">
+        <v>52.28189156677908</v>
+      </c>
+      <c r="N2" s="13">
+        <v>9.8294841543144535</v>
+      </c>
+      <c r="O2" s="13">
+        <v>338.98346838031421</v>
+      </c>
+      <c r="P2" s="13">
+        <v>35709.008909223878</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>73632.724884151248</v>
+      </c>
+      <c r="R2" s="13">
+        <v>744853.96513498458</v>
+      </c>
+      <c r="S2" s="13">
+        <v>23.518145468272934</v>
+      </c>
+      <c r="T2" s="13">
+        <v>1087.841454077746</v>
+      </c>
+      <c r="U2" s="13">
+        <v>356159.95995556167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>3639000</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>-476</v>
+      </c>
+      <c r="F3" s="14">
+        <v>65842</v>
+      </c>
+      <c r="G3" s="13">
+        <v>11288.278741702596</v>
+      </c>
+      <c r="H3" s="13">
+        <v>23969.885793246038</v>
+      </c>
+      <c r="I3" s="13">
+        <v>46136.882675321423</v>
+      </c>
+      <c r="J3" s="13">
+        <v>988.83749852333153</v>
+      </c>
+      <c r="K3" s="13">
+        <v>4090470.24755956</v>
+      </c>
+      <c r="L3" s="13">
+        <v>25.276837182740646</v>
+      </c>
+      <c r="M3" s="13">
+        <v>91.783765195012165</v>
+      </c>
+      <c r="N3" s="13">
+        <v>298.5705811873018</v>
+      </c>
+      <c r="O3" s="13">
+        <v>722.15238716924478</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1066337.8382213118</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>395500.44770277175</v>
+      </c>
+      <c r="R3" s="13">
+        <v>17132037.645676285</v>
+      </c>
+      <c r="S3" s="13">
+        <v>26.585729659786789</v>
+      </c>
+      <c r="T3" s="13">
+        <v>3662.5528871433626</v>
+      </c>
+      <c r="U3" s="13">
+        <v>18702978.115983784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3657000</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>-898</v>
+      </c>
+      <c r="F4" s="14">
+        <v>110482</v>
+      </c>
+      <c r="G4" s="13">
+        <v>19387.608375048698</v>
+      </c>
+      <c r="H4" s="13">
+        <v>23374.655086082195</v>
+      </c>
+      <c r="I4" s="13">
+        <v>87752.516275045637</v>
+      </c>
+      <c r="J4" s="13">
+        <v>3755.8691620892382</v>
+      </c>
+      <c r="K4" s="13">
+        <v>2076660.1605172826</v>
+      </c>
+      <c r="L4" s="13">
+        <v>25.175729834009683</v>
+      </c>
+      <c r="M4" s="13">
+        <v>242.82034083237392</v>
+      </c>
+      <c r="N4" s="13">
+        <v>307.17137982232691</v>
+      </c>
+      <c r="O4" s="13">
+        <v>868.06713037909356</v>
+      </c>
+      <c r="P4" s="13">
+        <v>91892.042028160213</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>404333.93767816876</v>
+      </c>
+      <c r="R4" s="13">
+        <v>15529696.715903692</v>
+      </c>
+      <c r="S4" s="13">
+        <v>30.675841915138577</v>
+      </c>
+      <c r="T4" s="13">
+        <v>5484.0548567619135</v>
+      </c>
+      <c r="U4" s="13">
+        <v>23228394.098859005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>14625000</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>-166</v>
+      </c>
+      <c r="F5" s="14">
+        <v>18562</v>
+      </c>
+      <c r="G5" s="13">
+        <v>3828.3971421088322</v>
+      </c>
+      <c r="H5" s="13">
+        <v>23669.21548370285</v>
+      </c>
+      <c r="I5" s="13">
+        <v>10065.874830010225</v>
+      </c>
+      <c r="J5" s="13">
+        <v>695.12339005105468</v>
+      </c>
+      <c r="K5" s="13">
+        <v>693877.79925142787</v>
+      </c>
+      <c r="L5" s="13">
+        <v>38.623007215227709</v>
+      </c>
+      <c r="M5" s="13">
+        <v>110.37288219653362</v>
+      </c>
+      <c r="N5" s="13">
+        <v>51.60479181015095</v>
+      </c>
+      <c r="O5" s="13">
+        <v>635.26575212801254</v>
+      </c>
+      <c r="P5" s="13">
+        <v>16451.428351689148</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>44614.97432854872</v>
+      </c>
+      <c r="R5" s="13">
+        <v>6720399.1433862001</v>
+      </c>
+      <c r="S5" s="13">
+        <v>24.540673532110869</v>
+      </c>
+      <c r="T5" s="13">
+        <v>1102.7906495354739</v>
+      </c>
+      <c r="U5" s="13">
+        <v>2603925.131103361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>18610000</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-210</v>
+      </c>
+      <c r="F6" s="14">
+        <v>28673</v>
+      </c>
+      <c r="G6" s="13">
+        <v>4366.2796858972679</v>
+      </c>
+      <c r="H6" s="13">
+        <v>20405.00153078483</v>
+      </c>
+      <c r="I6" s="13">
+        <v>19361.073799269216</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1451.437219367167</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1321871.3168206764</v>
+      </c>
+      <c r="L6" s="13">
+        <v>36.904182286801344</v>
+      </c>
+      <c r="M6" s="13">
+        <v>125.47653976026976</v>
+      </c>
+      <c r="N6" s="13">
+        <v>113.03906777461636</v>
+      </c>
+      <c r="O6" s="13">
+        <v>997.42660147201968</v>
+      </c>
+      <c r="P6" s="13">
+        <v>141732.90454409877</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>69713.060492630117</v>
+      </c>
+      <c r="R6" s="13">
+        <v>7462886.8332526349</v>
+      </c>
+      <c r="S6" s="13">
+        <v>39.878594489680175</v>
+      </c>
+      <c r="T6" s="13">
+        <v>1279.8811188039447</v>
+      </c>
+      <c r="U6" s="13">
+        <v>9261078.9064769875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1703000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-291</v>
+      </c>
+      <c r="F7" s="14">
+        <v>28434</v>
+      </c>
+      <c r="G7" s="13">
+        <v>5725</v>
+      </c>
+      <c r="H7" s="13">
+        <v>20773.66617</v>
+      </c>
+      <c r="I7" s="13">
+        <v>29854.288992554695</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1344.8309380053936</v>
+      </c>
+      <c r="K7" s="13">
+        <v>2063160.5890038323</v>
+      </c>
+      <c r="L7" s="13">
+        <v>22.6</v>
+      </c>
+      <c r="M7" s="13">
+        <v>72.999999999999545</v>
+      </c>
+      <c r="N7" s="13">
+        <v>119.25618355303567</v>
+      </c>
+      <c r="O7" s="13">
+        <v>350.99999999999966</v>
+      </c>
+      <c r="P7" s="13">
+        <v>10711.999999999955</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>8164.1690086360904</v>
+      </c>
+      <c r="R7" s="13">
+        <v>54366.531525845545</v>
+      </c>
+      <c r="S7" s="13">
+        <v>1.9999999999999927</v>
+      </c>
+      <c r="T7" s="13">
+        <v>1690.0045188387674</v>
+      </c>
+      <c r="U7" s="13">
+        <v>6244959.3830651175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1716000</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-284</v>
+      </c>
+      <c r="F8" s="14">
+        <v>139565</v>
+      </c>
+      <c r="G8" s="13">
+        <v>24379.999999999993</v>
+      </c>
+      <c r="H8" s="13">
+        <v>19874.44096</v>
+      </c>
+      <c r="I8" s="13">
+        <v>230273.10161526751</v>
+      </c>
+      <c r="J8" s="13">
+        <v>2249.447432275208</v>
+      </c>
+      <c r="K8" s="13">
+        <v>7304500.1920620315</v>
+      </c>
+      <c r="L8" s="13">
+        <v>21.6</v>
+      </c>
+      <c r="M8" s="13">
+        <v>311.9999999999979</v>
+      </c>
+      <c r="N8" s="13">
+        <v>404.84335995635797</v>
+      </c>
+      <c r="O8" s="13">
+        <v>962.79999999999893</v>
+      </c>
+      <c r="P8" s="13">
+        <v>8125.9999999999918</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>52239.728775468961</v>
+      </c>
+      <c r="R8" s="13">
+        <v>216908.59262118847</v>
+      </c>
+      <c r="S8" s="13">
+        <v>33.999999999999922</v>
+      </c>
+      <c r="T8" s="13">
+        <v>6527.0940903729661</v>
+      </c>
+      <c r="U8" s="13">
+        <v>17700089.625400923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>10615000</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-274</v>
+      </c>
+      <c r="F9" s="14">
+        <v>19887.999999999989</v>
+      </c>
+      <c r="G9" s="13">
+        <v>4481.9999999999982</v>
+      </c>
+      <c r="H9" s="13">
+        <v>37917.462079999998</v>
+      </c>
+      <c r="I9" s="13">
+        <v>16177.064092220677</v>
+      </c>
+      <c r="J9" s="13">
+        <v>737.72200735907359</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1580784.1474639561</v>
+      </c>
+      <c r="L9" s="13">
+        <v>29.1</v>
+      </c>
+      <c r="M9" s="13">
+        <v>67.999999999999545</v>
+      </c>
+      <c r="N9" s="13">
+        <v>120.30229042630789</v>
+      </c>
+      <c r="O9" s="13">
+        <v>358.69999999999959</v>
+      </c>
+      <c r="P9" s="13">
+        <v>4886.9999999999818</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>9316.2358979556921</v>
+      </c>
+      <c r="R9" s="13">
+        <v>865834.67027747876</v>
+      </c>
+      <c r="S9" s="13">
+        <v>14.999999999999956</v>
+      </c>
+      <c r="T9" s="13">
+        <v>1143.7298814143694</v>
+      </c>
+      <c r="U9" s="13">
+        <v>5837841.9366662949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>10710000</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>-340</v>
+      </c>
+      <c r="F10" s="14">
+        <v>65776</v>
+      </c>
+      <c r="G10" s="13">
+        <v>14881</v>
+      </c>
+      <c r="H10" s="13">
+        <v>35840.741759999997</v>
+      </c>
+      <c r="I10" s="13">
+        <v>58054.759577604673</v>
+      </c>
+      <c r="J10" s="13">
+        <v>2649.7523247930017</v>
+      </c>
+      <c r="K10" s="13">
+        <v>3377660.5517561701</v>
+      </c>
+      <c r="L10" s="13">
+        <v>22.8</v>
+      </c>
+      <c r="M10" s="13">
+        <v>240.99999999999852</v>
+      </c>
+      <c r="N10" s="13">
+        <v>203.99084028808733</v>
+      </c>
+      <c r="O10" s="13">
+        <v>225.39999999999938</v>
+      </c>
+      <c r="P10" s="13">
+        <v>2243.9999999999036</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>13298.13054705717</v>
+      </c>
+      <c r="R10" s="13">
+        <v>184575.09986104607</v>
+      </c>
+      <c r="S10" s="13">
+        <v>5.9999999999999716</v>
+      </c>
+      <c r="T10" s="13">
+        <v>3448.9461812148397</v>
+      </c>
+      <c r="U10" s="13">
+        <v>9740873.2307771854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>18715000</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>-825</v>
+      </c>
+      <c r="F11" s="14">
+        <v>108665</v>
+      </c>
+      <c r="G11" s="13">
+        <v>17434.000000000004</v>
+      </c>
+      <c r="H11" s="13">
+        <v>19751.678240000001</v>
+      </c>
+      <c r="I11" s="13">
+        <v>80578.646260303038</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2207.1191203775575</v>
+      </c>
+      <c r="K11" s="13">
+        <v>8035015.1850104388</v>
+      </c>
+      <c r="L11" s="13">
+        <v>26.6</v>
+      </c>
+      <c r="M11" s="13">
+        <v>270.99999999999818</v>
+      </c>
+      <c r="N11" s="13">
+        <v>306.50931386876721</v>
+      </c>
+      <c r="O11" s="13">
+        <v>225.39999999999932</v>
+      </c>
+      <c r="P11" s="13">
+        <v>2036.9999999998449</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>29538.77332959717</v>
+      </c>
+      <c r="R11" s="13">
+        <v>267802.97913148615</v>
+      </c>
+      <c r="S11" s="13">
+        <v>33.999999999999908</v>
+      </c>
+      <c r="T11" s="13">
+        <v>5967.2409246760681</v>
+      </c>
+      <c r="U11" s="13">
+        <v>14464008.469065005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1606000</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-168</v>
+      </c>
+      <c r="F12" s="14">
+        <v>9622.9999999999964</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1207.9999999999993</v>
+      </c>
+      <c r="H12" s="13">
+        <v>17258.655753586329</v>
+      </c>
+      <c r="I12" s="13">
+        <v>3746.5999999999967</v>
+      </c>
+      <c r="J12" s="13">
+        <v>44.99999999999995</v>
+      </c>
+      <c r="K12" s="13">
+        <v>84821.616612874292</v>
+      </c>
+      <c r="L12" s="13">
+        <v>33.14783941551179</v>
+      </c>
+      <c r="M12" s="13">
+        <v>32.999999999999773</v>
+      </c>
+      <c r="N12" s="13">
+        <v>9.9999999999999485</v>
+      </c>
+      <c r="O12" s="13">
+        <v>220.54621652251558</v>
+      </c>
+      <c r="P12" s="13">
+        <v>22989.999999999982</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>7716.2901723415644</v>
+      </c>
+      <c r="R12" s="13">
+        <v>633508.48902710096</v>
+      </c>
+      <c r="S12" s="13">
+        <v>14.999999999999956</v>
+      </c>
+      <c r="T12" s="13">
+        <v>672.99999999999989</v>
+      </c>
+      <c r="U12" s="13">
+        <v>286032.99613732687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>1620000</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-174</v>
+      </c>
+      <c r="F13" s="14">
+        <v>16685</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2386</v>
+      </c>
+      <c r="H13" s="13">
+        <v>16883.121971367545</v>
+      </c>
+      <c r="I13" s="13">
+        <v>10592.199999999999</v>
+      </c>
+      <c r="J13" s="13">
+        <v>377.99999999999972</v>
+      </c>
+      <c r="K13" s="13">
+        <v>426219.52494578558</v>
+      </c>
+      <c r="L13" s="13">
+        <v>29.073188058787746</v>
+      </c>
+      <c r="M13" s="13">
+        <v>27.999999999999833</v>
+      </c>
+      <c r="N13" s="13">
+        <v>22.999999999999915</v>
+      </c>
+      <c r="O13" s="13">
+        <v>831.72090129253809</v>
+      </c>
+      <c r="P13" s="13">
+        <v>112136.99999999997</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>9526.584408588913</v>
+      </c>
+      <c r="R13" s="13">
+        <v>1663767.7267059332</v>
+      </c>
+      <c r="S13" s="13">
+        <v>21.999999999999957</v>
+      </c>
+      <c r="T13" s="13">
+        <v>624.00000000000011</v>
+      </c>
+      <c r="U13" s="13">
+        <v>1832988.2302829542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>1719000</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-193</v>
+      </c>
+      <c r="F14" s="14">
+        <v>40956</v>
+      </c>
+      <c r="G14" s="13">
+        <v>6906.9999999999973</v>
+      </c>
+      <c r="H14" s="13">
+        <v>16785.724278174286</v>
+      </c>
+      <c r="I14" s="13">
+        <v>45679.399999999994</v>
+      </c>
+      <c r="J14" s="13">
+        <v>943.99999999999955</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1215303.8837618858</v>
+      </c>
+      <c r="L14" s="13">
+        <v>25.218788126751495</v>
+      </c>
+      <c r="M14" s="13">
+        <v>86.999999999999389</v>
+      </c>
+      <c r="N14" s="13">
+        <v>196.9999999999992</v>
+      </c>
+      <c r="O14" s="13">
+        <v>2545.0036567640586</v>
+      </c>
+      <c r="P14" s="13">
+        <v>49269.999999999935</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>10795.143423886177</v>
+      </c>
+      <c r="R14" s="13">
+        <v>860264.7351061966</v>
+      </c>
+      <c r="S14" s="13">
+        <v>26.99999999999994</v>
+      </c>
+      <c r="T14" s="13">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="U14" s="13">
+        <v>2408571.3178105522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4621000</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11">
+        <v>-121</v>
+      </c>
+      <c r="F15" s="14">
+        <v>24184.999999999989</v>
+      </c>
+      <c r="G15" s="13">
+        <v>4568.9999999999982</v>
+      </c>
+      <c r="H15" s="13">
+        <v>22221.419357870833</v>
+      </c>
+      <c r="I15" s="13">
+        <v>4933.5999999999949</v>
+      </c>
+      <c r="J15" s="13">
+        <v>130.99999999999977</v>
+      </c>
+      <c r="K15" s="13">
+        <v>153719.09000888685</v>
+      </c>
+      <c r="L15" s="13">
+        <v>24.558033852688137</v>
+      </c>
+      <c r="M15" s="13">
+        <v>103.9999999999993</v>
+      </c>
+      <c r="N15" s="13">
+        <v>2.9999999999999765</v>
+      </c>
+      <c r="O15" s="13">
+        <v>329.15795968755845</v>
+      </c>
+      <c r="P15" s="13">
+        <v>106497.99999999996</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>19721.666163920327</v>
+      </c>
+      <c r="R15" s="13">
+        <v>3540502.3070698176</v>
+      </c>
+      <c r="S15" s="13">
+        <v>50.999999999999886</v>
+      </c>
+      <c r="T15" s="13">
+        <v>1217.9999999999995</v>
+      </c>
+      <c r="U15" s="13">
+        <v>4328559.1604477121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>36616000</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-158</v>
+      </c>
+      <c r="F16" s="14">
+        <v>12565.999999999991</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2093.9999999999991</v>
+      </c>
+      <c r="H16" s="13">
+        <v>17591.166459640302</v>
+      </c>
+      <c r="I16" s="13">
+        <v>7192.4999999999927</v>
+      </c>
+      <c r="J16" s="13">
+        <v>449.99999999999943</v>
+      </c>
+      <c r="K16" s="13">
+        <v>319049.36629622732</v>
+      </c>
+      <c r="L16" s="13">
+        <v>33.070751416871069</v>
+      </c>
+      <c r="M16" s="13">
+        <v>59.999999999999581</v>
+      </c>
+      <c r="N16" s="13">
+        <v>14.999999999999922</v>
+      </c>
+      <c r="O16" s="13">
+        <v>672.64519332996974</v>
+      </c>
+      <c r="P16" s="13">
+        <v>25719.999999999982</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>21438.730829234901</v>
+      </c>
+      <c r="R16" s="13">
+        <v>1584006.3709418301</v>
+      </c>
+      <c r="S16" s="13">
+        <v>21.999999999999932</v>
+      </c>
+      <c r="T16" s="13">
+        <v>676.99999999999955</v>
+      </c>
+      <c r="U16" s="13">
+        <v>2294824.0449553295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>1641000</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-76</v>
+      </c>
+      <c r="F17" s="14">
+        <v>4183.9999999999918</v>
+      </c>
+      <c r="G17" s="13">
+        <v>788.99999999999841</v>
+      </c>
+      <c r="H17" s="13">
+        <v>20226.367727107965</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2381.0656795158275</v>
+      </c>
+      <c r="J17" s="13">
+        <v>113.42499495170337</v>
+      </c>
+      <c r="K17" s="13">
+        <v>81501.246245260627</v>
+      </c>
+      <c r="L17" s="13">
+        <v>36.102330543942813</v>
+      </c>
+      <c r="M17" s="13">
+        <v>15.982526713303701</v>
+      </c>
+      <c r="N17" s="13">
+        <v>2.5736340998794454</v>
+      </c>
+      <c r="O17" s="13">
+        <v>109.9937054332045</v>
+      </c>
+      <c r="P17" s="13">
+        <v>44335.913688073495</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>2003.2628205799081</v>
+      </c>
+      <c r="R17" s="13">
+        <v>1077875.2283725089</v>
+      </c>
+      <c r="S17" s="13">
+        <v>11.577914620948475</v>
+      </c>
+      <c r="T17" s="13">
+        <v>315.84662311287593</v>
+      </c>
+      <c r="U17" s="13">
+        <v>1122077.8321941854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>3630000</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-953</v>
+      </c>
+      <c r="F18" s="14">
+        <v>95828.000000000015</v>
+      </c>
+      <c r="G18" s="13">
+        <v>13438.999999999998</v>
+      </c>
+      <c r="H18" s="13">
+        <v>22455.614878771485</v>
+      </c>
+      <c r="I18" s="13">
+        <v>92694.324653006508</v>
+      </c>
+      <c r="J18" s="13">
+        <v>2987.3308045404933</v>
+      </c>
+      <c r="K18" s="13">
+        <v>4123326.2785686189</v>
+      </c>
+      <c r="L18" s="13">
+        <v>27.42970365349845</v>
+      </c>
+      <c r="M18" s="13">
+        <v>238.50847556776347</v>
+      </c>
+      <c r="N18" s="13">
+        <v>285.67338508661948</v>
+      </c>
+      <c r="O18" s="13">
+        <v>1071.6954272613598</v>
+      </c>
+      <c r="P18" s="13">
+        <v>1592537.543345849</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>117295.81425731478</v>
+      </c>
+      <c r="R18" s="13">
+        <v>12574233.283892285</v>
+      </c>
+      <c r="S18" s="13">
+        <v>31.260369476560907</v>
+      </c>
+      <c r="T18" s="13">
+        <v>4873.0621851700944</v>
+      </c>
+      <c r="U18" s="13">
+        <v>14264173.483645547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18652000</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3</v>
+      </c>
+      <c r="E19" s="11">
+        <v>-188</v>
+      </c>
+      <c r="F19" s="14">
+        <v>17569.999999999989</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1887.9999999999989</v>
+      </c>
+      <c r="H19" s="13">
+        <v>19492.420354584516</v>
+      </c>
+      <c r="I19" s="13">
+        <v>11096.210636742033</v>
+      </c>
+      <c r="J19" s="13">
+        <v>333.18592267062911</v>
+      </c>
+      <c r="K19" s="13">
+        <v>480263.66540990554</v>
+      </c>
+      <c r="L19" s="13">
+        <v>26.522103164963575</v>
+      </c>
+      <c r="M19" s="13">
+        <v>191.79032055964473</v>
+      </c>
+      <c r="N19" s="13">
+        <v>73.348571846564397</v>
+      </c>
+      <c r="O19" s="13">
+        <v>526.1861043696548</v>
+      </c>
+      <c r="P19" s="13">
+        <v>253392.39889601793</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>30747.732458975683</v>
+      </c>
+      <c r="R19" s="13">
+        <v>3041350.6148838014</v>
+      </c>
+      <c r="S19" s="13">
+        <v>28.944786552371227</v>
+      </c>
+      <c r="T19" s="13">
+        <v>991.40745588208404</v>
+      </c>
+      <c r="U19" s="13">
+        <v>482329.48363598721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>22712000</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11">
+        <v>-483</v>
+      </c>
+      <c r="F20" s="14">
+        <v>120926</v>
+      </c>
+      <c r="G20" s="13">
+        <v>20037.999999999996</v>
+      </c>
+      <c r="H20" s="13">
+        <v>26679.61717489058</v>
+      </c>
+      <c r="I20" s="13">
+        <v>95336.24843414966</v>
+      </c>
+      <c r="J20" s="13">
+        <v>3615.4217140855512</v>
+      </c>
+      <c r="K20" s="13">
+        <v>6626984.6553996988</v>
+      </c>
+      <c r="L20" s="13">
+        <v>30.152505119103076</v>
+      </c>
+      <c r="M20" s="13">
+        <v>240.96732583134855</v>
+      </c>
+      <c r="N20" s="13">
+        <v>320.41744543499203</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1517.7509820955217</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1751784.5110765442</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>167909.13172030606</v>
+      </c>
+      <c r="R20" s="13">
+        <v>2846566.7104680962</v>
+      </c>
+      <c r="S20" s="13">
+        <v>40.522701173319724</v>
+      </c>
+      <c r="T20" s="13">
+        <v>7907.4458143616584</v>
+      </c>
+      <c r="U20" s="13">
+        <v>40371896.324514598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>53725000</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11">
+        <v>-523</v>
+      </c>
+      <c r="F21" s="14">
+        <v>50473.999999999993</v>
+      </c>
+      <c r="G21" s="13">
+        <v>8680.9999999999982</v>
+      </c>
+      <c r="H21" s="13">
+        <v>20574.743082475143</v>
+      </c>
+      <c r="I21" s="13">
+        <v>43065.645861595542</v>
+      </c>
+      <c r="J21" s="13">
+        <v>2373.418019364397</v>
+      </c>
+      <c r="K21" s="13">
+        <v>1870945.4971052352</v>
+      </c>
+      <c r="L21" s="13">
+        <v>25.311969180250408</v>
+      </c>
+      <c r="M21" s="13">
+        <v>195.47859595502251</v>
+      </c>
+      <c r="N21" s="13">
+        <v>238.06115423884944</v>
+      </c>
+      <c r="O21" s="13">
+        <v>521.86202749758786</v>
+      </c>
+      <c r="P21" s="13">
+        <v>1123141.3928940871</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>294093.9076134772</v>
+      </c>
+      <c r="R21" s="13">
+        <v>7094269.7219382674</v>
+      </c>
+      <c r="S21" s="13">
+        <v>45.153867021699128</v>
+      </c>
+      <c r="T21" s="13">
+        <v>3133.3990388182192</v>
+      </c>
+      <c r="U21" s="13">
+        <v>5608681.5484265415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>1706000</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11">
+        <v>-199</v>
+      </c>
+      <c r="F22" s="14">
+        <v>47578.999999999993</v>
+      </c>
+      <c r="G22" s="13">
+        <v>11633.999999999998</v>
+      </c>
+      <c r="H22" s="13">
+        <v>25430.158580461106</v>
+      </c>
+      <c r="I22" s="13">
+        <v>45721.641100095774</v>
+      </c>
+      <c r="J22" s="13">
+        <v>1078.2639907286032</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1929096.1699928325</v>
+      </c>
+      <c r="L22" s="13">
+        <v>24.20423743534403</v>
+      </c>
+      <c r="M22" s="13">
+        <v>69.999999999999503</v>
+      </c>
+      <c r="N22" s="13">
+        <v>197.21727965783901</v>
+      </c>
+      <c r="O22" s="13">
+        <v>201.0999999999998</v>
+      </c>
+      <c r="P22" s="13">
+        <v>14598.999999999955</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>23998.867850818726</v>
+      </c>
+      <c r="R22" s="13">
+        <v>286065.10401343706</v>
+      </c>
+      <c r="S22" s="13">
+        <v>10.999999999999968</v>
+      </c>
+      <c r="T22" s="13">
+        <v>2873.3721036438064</v>
+      </c>
+      <c r="U22" s="13">
+        <v>36698725.509738542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>5634000</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="11">
+        <v>4</v>
+      </c>
+      <c r="E23" s="11">
+        <v>-310</v>
+      </c>
+      <c r="F23" s="14">
+        <v>28553</v>
+      </c>
+      <c r="G23" s="13">
+        <v>6935.9999999999991</v>
+      </c>
+      <c r="H23" s="13">
+        <v>35250.545648341838</v>
+      </c>
+      <c r="I23" s="13">
+        <v>16196.061133388332</v>
+      </c>
+      <c r="J23" s="13">
+        <v>593.70486697514832</v>
+      </c>
+      <c r="K23" s="13">
+        <v>198628.86628169011</v>
+      </c>
+      <c r="L23" s="13">
+        <v>23.586256905079928</v>
+      </c>
+      <c r="M23" s="13">
+        <v>76.999999999999531</v>
+      </c>
+      <c r="N23" s="13">
+        <v>143.32651137924353</v>
+      </c>
+      <c r="O23" s="13">
+        <v>169.2999999999999</v>
+      </c>
+      <c r="P23" s="13">
+        <v>19625.999999999978</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>14867.205704713007</v>
+      </c>
+      <c r="R23" s="13">
+        <v>527779.81315317133</v>
+      </c>
+      <c r="S23" s="13">
+        <v>11.999999999999972</v>
+      </c>
+      <c r="T23" s="13">
+        <v>2163.9493344461398</v>
+      </c>
+      <c r="U23" s="13">
+        <v>15073222.510616535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>25738000</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="11">
+        <v>4</v>
+      </c>
+      <c r="E24" s="11">
+        <v>-236</v>
+      </c>
+      <c r="F24" s="14">
+        <v>79746</v>
+      </c>
+      <c r="G24" s="13">
+        <v>16843</v>
+      </c>
+      <c r="H24" s="13">
+        <v>36013.090284106096</v>
+      </c>
+      <c r="I24" s="13">
+        <v>89235.335521758054</v>
+      </c>
+      <c r="J24" s="13">
+        <v>3173.6223798307956</v>
+      </c>
+      <c r="K24" s="13">
+        <v>2866020.8550127735</v>
+      </c>
+      <c r="L24" s="13">
+        <v>25.33720174082822</v>
+      </c>
+      <c r="M24" s="13">
+        <v>164.99999999999895</v>
+      </c>
+      <c r="N24" s="13">
+        <v>267.16061721090983</v>
+      </c>
+      <c r="O24" s="13">
+        <v>188.49999999999935</v>
+      </c>
+      <c r="P24" s="13">
+        <v>1592.9999999998829</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>33756.391905464778</v>
+      </c>
+      <c r="R24" s="13">
+        <v>385565.28476867708</v>
+      </c>
+      <c r="S24" s="13">
+        <v>7.9999999999999671</v>
+      </c>
+      <c r="T24" s="13">
+        <v>5809.7107252637397</v>
+      </c>
+      <c r="U24" s="13">
+        <v>42433907.62955901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>36704000</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="11">
+        <v>4</v>
+      </c>
+      <c r="E25" s="11">
+        <v>-472</v>
+      </c>
+      <c r="F25" s="14">
+        <v>57687</v>
+      </c>
+      <c r="G25" s="13">
+        <v>11292</v>
+      </c>
+      <c r="H25" s="13">
+        <v>24299.842428383665</v>
+      </c>
+      <c r="I25" s="13">
+        <v>40497.559605764291</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1516.0463673870463</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2451468.3725845898</v>
+      </c>
+      <c r="L25" s="13">
+        <v>30.291345658445444</v>
+      </c>
+      <c r="M25" s="13">
+        <v>70.999999999999531</v>
+      </c>
+      <c r="N25" s="13">
+        <v>264.86739302884195</v>
+      </c>
+      <c r="O25" s="13">
+        <v>233.29999999999964</v>
+      </c>
+      <c r="P25" s="13">
+        <v>383.99999999993003</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>54613.648153300077</v>
+      </c>
+      <c r="R25" s="13">
+        <v>397106.55893314036</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0.99999999999999423</v>
+      </c>
+      <c r="T25" s="13">
+        <v>2546.9956521342292</v>
+      </c>
+      <c r="U25" s="13">
+        <v>36383677.220934838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>65753000</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="11">
+        <v>4</v>
+      </c>
+      <c r="E26" s="11">
+        <v>-402</v>
+      </c>
+      <c r="F26" s="14">
+        <v>141368</v>
+      </c>
+      <c r="G26" s="13">
+        <v>33537</v>
+      </c>
+      <c r="H26" s="13">
+        <v>27642.948561951056</v>
+      </c>
+      <c r="I26" s="13">
+        <v>70667.89302949344</v>
+      </c>
+      <c r="J26" s="13">
+        <v>3450.6846510858627</v>
+      </c>
+      <c r="K26" s="13">
+        <v>15056552.97599566</v>
+      </c>
+      <c r="L26" s="13">
+        <v>32.340981083821383</v>
+      </c>
+      <c r="M26" s="13">
+        <v>306.99999999999795</v>
+      </c>
+      <c r="N26" s="13">
+        <v>228.17580611575562</v>
+      </c>
+      <c r="O26" s="13">
+        <v>474.69999999999879</v>
+      </c>
+      <c r="P26" s="13">
+        <v>595570.99999999977</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>86202.901620042059</v>
+      </c>
+      <c r="R26" s="13">
+        <v>2008583.4240983608</v>
+      </c>
+      <c r="S26" s="13">
+        <v>90.999999999999801</v>
+      </c>
+      <c r="T26" s="13">
+        <v>9834.3206659043535</v>
+      </c>
+      <c r="U26" s="13">
+        <v>89911704.287623957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>1625000</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="11">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11">
+        <v>-294</v>
+      </c>
+      <c r="F27" s="14">
+        <v>23671.999999999989</v>
+      </c>
+      <c r="G27" s="13">
+        <v>2819.9999999999991</v>
+      </c>
+      <c r="H27" s="13">
+        <v>17851.005113971656</v>
+      </c>
+      <c r="I27" s="13">
+        <v>19208.304094964893</v>
+      </c>
+      <c r="J27" s="13">
+        <v>451.32048764165734</v>
+      </c>
+      <c r="K27" s="13">
+        <v>755007.55980432429</v>
+      </c>
+      <c r="L27" s="13">
+        <v>28</v>
+      </c>
+      <c r="M27" s="13">
+        <v>69.903067955958988</v>
+      </c>
+      <c r="N27" s="13">
+        <v>70.789182904792597</v>
+      </c>
+      <c r="O27" s="13">
+        <v>419.02042306815559</v>
+      </c>
+      <c r="P27" s="13">
+        <v>42544.905231337492</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>12579.477799160772</v>
+      </c>
+      <c r="R27" s="13">
+        <v>4394157.9441938587</v>
+      </c>
+      <c r="S27" s="13">
+        <v>17.99999999999995</v>
+      </c>
+      <c r="T27" s="13">
+        <v>801.10415672385136</v>
+      </c>
+      <c r="U27" s="13">
+        <v>1155335.2855618461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>3654000</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="11">
+        <v>5</v>
+      </c>
+      <c r="E28" s="11">
+        <v>-541</v>
+      </c>
+      <c r="F28" s="14">
+        <v>116468</v>
+      </c>
+      <c r="G28" s="13">
+        <v>21239.000000000004</v>
+      </c>
+      <c r="H28" s="13">
+        <v>24015.332144548502</v>
+      </c>
+      <c r="I28" s="13">
+        <v>75741.100743844116</v>
+      </c>
+      <c r="J28" s="13">
+        <v>2701.4197487945912</v>
+      </c>
+      <c r="K28" s="13">
+        <v>6157047.3815629296</v>
+      </c>
+      <c r="L28" s="13">
+        <v>30.2</v>
+      </c>
+      <c r="M28" s="13">
+        <v>323.70497622682552</v>
+      </c>
+      <c r="N28" s="13">
+        <v>358.66519338428265</v>
+      </c>
+      <c r="O28" s="13">
+        <v>858.63583686488971</v>
+      </c>
+      <c r="P28" s="13">
+        <v>217415.84252314031</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>117995.28296850856</v>
+      </c>
+      <c r="R28" s="13">
+        <v>11423806.789907886</v>
+      </c>
+      <c r="S28" s="13">
+        <v>34.999999999999901</v>
+      </c>
+      <c r="T28" s="13">
+        <v>4841.0347833164842</v>
+      </c>
+      <c r="U28" s="13">
+        <v>27065491.890230715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>4722000</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="11">
+        <v>5</v>
+      </c>
+      <c r="E29" s="11">
+        <v>-192</v>
+      </c>
+      <c r="F29" s="14">
+        <v>64841.999999999993</v>
+      </c>
+      <c r="G29" s="13">
+        <v>15028.999999999996</v>
+      </c>
+      <c r="H29" s="13">
+        <v>26319.181705669933</v>
+      </c>
+      <c r="I29" s="13">
+        <v>20187.858263132799</v>
+      </c>
+      <c r="J29" s="13">
+        <v>1461.9142020438699</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1140065.0140690142</v>
+      </c>
+      <c r="L29" s="13">
+        <v>23.8</v>
+      </c>
+      <c r="M29" s="13">
+        <v>134.42897683838268</v>
+      </c>
+      <c r="N29" s="13">
+        <v>230.064844440576</v>
+      </c>
+      <c r="O29" s="13">
+        <v>257.87557539933033</v>
+      </c>
+      <c r="P29" s="13">
+        <v>2327.949027416018</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>30304.86742077177</v>
+      </c>
+      <c r="R29" s="13">
+        <v>352889.09448255628</v>
+      </c>
+      <c r="S29" s="13">
+        <v>11.999999999999948</v>
+      </c>
+      <c r="T29" s="13">
+        <v>3452.8126808594466</v>
+      </c>
+      <c r="U29" s="13">
+        <v>13159071.296912728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>7726000</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11">
+        <v>-300</v>
+      </c>
+      <c r="F30" s="14">
+        <v>64100</v>
+      </c>
+      <c r="G30" s="13">
+        <v>9192</v>
+      </c>
+      <c r="H30" s="13">
+        <v>21573.720880582281</v>
+      </c>
+      <c r="I30" s="13">
+        <v>70270.683684162912</v>
+      </c>
+      <c r="J30" s="13">
+        <v>1356.5627337471146</v>
+      </c>
+      <c r="K30" s="13">
+        <v>1572642.0396001372</v>
+      </c>
+      <c r="L30" s="13">
+        <v>24.81</v>
+      </c>
+      <c r="M30" s="13">
+        <v>151.63588587369571</v>
+      </c>
+      <c r="N30" s="13">
+        <v>109.72323350242851</v>
+      </c>
+      <c r="O30" s="13">
+        <v>617.41153056526139</v>
+      </c>
+      <c r="P30" s="13">
+        <v>38526.536785673379</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>77864.650048687123</v>
+      </c>
+      <c r="R30" s="13">
+        <v>11237072.288961096</v>
+      </c>
+      <c r="S30" s="13">
+        <v>36.999999999999908</v>
+      </c>
+      <c r="T30" s="13">
+        <v>3322.7004621163783</v>
+      </c>
+      <c r="U30" s="13">
+        <v>9808902.6612626221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>60730000</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="11">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11">
+        <v>-429</v>
+      </c>
+      <c r="F31" s="14">
+        <v>105038</v>
+      </c>
+      <c r="G31" s="13">
+        <v>11442</v>
+      </c>
+      <c r="H31" s="13">
+        <v>18535.079522489126</v>
+      </c>
+      <c r="I31" s="13">
+        <v>81313.186226097343</v>
+      </c>
+      <c r="J31" s="13">
+        <v>104.05083288568417</v>
+      </c>
+      <c r="K31" s="13">
+        <v>4462143.4689371828</v>
+      </c>
+      <c r="L31" s="13">
+        <v>21.85</v>
+      </c>
+      <c r="M31" s="13">
+        <v>177.44624942666516</v>
+      </c>
+      <c r="N31" s="13">
+        <v>293.77510905488947</v>
+      </c>
+      <c r="O31" s="13">
+        <v>404.34101478289182</v>
+      </c>
+      <c r="P31" s="13">
+        <v>19594.912583464229</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>78047.756378671838</v>
+      </c>
+      <c r="R31" s="13">
+        <v>708166.29511669534</v>
+      </c>
+      <c r="S31" s="13">
+        <v>5.9999999999999627</v>
+      </c>
+      <c r="T31" s="13">
+        <v>3659.2717386996883</v>
+      </c>
+      <c r="U31" s="13">
+        <v>8288037.572059215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/migforecasting/clustering/examples for improv test.xlsx
+++ b/migforecasting/clustering/examples for improv test.xlsx
@@ -11,7 +11,34 @@
     <sheet name="examples abs" sheetId="3" r:id="rId2"/>
     <sheet name="examples abs + changes" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'examples abs + changes'!$C$39</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'examples abs + changes'!$C$40:$C$69</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'examples abs + changes'!$E$39</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'examples abs + changes'!$E$40:$E$69</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'examples abs + changes'!$C$39</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'examples abs + changes'!$C$40:$C$69</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'examples abs + changes'!$D$39</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'examples abs + changes'!$D$40:$D$69</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'examples abs + changes'!$E$39</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'examples abs + changes'!$E$40:$E$69</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'examples abs + changes'!$C$39</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'examples abs + changes'!$C$40:$C$69</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'examples abs + changes'!$D$39</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'examples abs + changes'!$D$39</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'examples abs + changes'!$D$40:$D$69</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'examples abs + changes'!$E$39</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'examples abs + changes'!$E$40:$E$69</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'examples abs + changes'!$D$40:$D$69</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'examples abs + changes'!$E$39</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'examples abs + changes'!$E$40:$E$69</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'examples abs + changes'!$C$39</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'examples abs + changes'!$C$40:$C$69</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'examples abs + changes'!$D$39</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'examples abs + changes'!$D$40:$D$69</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
   <si>
     <t>oktmo</t>
   </si>
@@ -175,6 +202,24 @@
   <si>
     <t>город Новошахтинск</t>
   </si>
+  <si>
+    <t>pred &gt; real</t>
+  </si>
+  <si>
+    <t>changes &gt; no changes</t>
+  </si>
+  <si>
+    <t>pred no changes(dataset-24)</t>
+  </si>
+  <si>
+    <t>pred changes (dataset-24)</t>
+  </si>
+  <si>
+    <t>pred no changes</t>
+  </si>
+  <si>
+    <t>pred changes</t>
+  </si>
 </sst>
 </file>
 
@@ -203,12 +248,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -316,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -360,6 +411,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -375,6 +432,1211 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'examples abs + changes'!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>saldo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'examples abs + changes'!$C$40:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-291</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-193</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-158</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-953</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-188</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-483</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-523</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-310</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-236</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-472</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-402</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-294</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-192</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-920F-41CE-9A43-8A98894AC6C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'examples abs + changes'!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pred no changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'examples abs + changes'!$D$40:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-86.789999999999921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.580000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-53.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-13.86999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-195.4399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-115.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-170.90000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-243.18999999999971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-262.89000000000021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-188.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-141.7799999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-155.09999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-197.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-149.20999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-143.57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.469999999999956</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-200.74000000000021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-168.0500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-36.529999999999987</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-44.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-129.7299999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-250.49999999999989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-252.35000000000039</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-348.47000000000031</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-166.34999999999991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-252.85000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-124.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-181.38000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-246.49000000000029</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-269.03000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-920F-41CE-9A43-8A98894AC6C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'examples abs + changes'!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pred changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'examples abs + changes'!$E$40:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-50.299999999999933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-82.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-35.789999999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-113.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-126.93000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-125.5500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-198.42999999999989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-311.97000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-150.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-138.43999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-133.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-169.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-192.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-113.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.489999999999982</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-121.56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.0399999999999814</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-98.72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-205.68999999999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-155.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-93.860000000000028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-177.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-114.89</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-21.41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-229.78999999999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-120.91</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.5499999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-920F-41CE-9A43-8A98894AC6C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1601997952"/>
+        <c:axId val="1601992960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1601997952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601992960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1601992960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601997952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>118380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2680,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:U31"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,9 +3955,10 @@
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
     <col min="20" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2759,8 +4022,9 @@
       <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="12"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>22719000</v>
       </c>
@@ -2825,7 +4089,7 @@
         <v>236233.5437799996</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>3639000</v>
       </c>
@@ -2890,7 +4154,7 @@
         <v>12405299.012639996</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3657000</v>
       </c>
@@ -2955,7 +4219,7 @@
         <v>15406913.946689995</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>14625000</v>
       </c>
@@ -3020,7 +4284,7 @@
         <v>1727129.7467999991</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>18610000</v>
       </c>
@@ -3085,7 +4349,7 @@
         <v>6142682.3205399979</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1703000</v>
       </c>
@@ -3150,7 +4414,7 @@
         <v>5355232.274249997</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1716000</v>
       </c>
@@ -3215,7 +4479,7 @@
         <v>15178335.903369986</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>10615000</v>
       </c>
@@ -3280,7 +4544,7 @@
         <v>5006117.3553799978</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>10710000</v>
       </c>
@@ -3345,7 +4609,7 @@
         <v>8353078.9401600007</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>18715000</v>
       </c>
@@ -3410,7 +4674,7 @@
         <v>12403303.24303</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1606000</v>
       </c>
@@ -3475,7 +4739,7 @@
         <v>232900.09079999954</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1620000</v>
       </c>
@@ -3540,7 +4804,7 @@
         <v>1492496.0792400001</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1719000</v>
       </c>
@@ -3605,7 +4869,7 @@
         <v>1961160.027659998</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>4621000</v>
       </c>
@@ -3670,7 +4934,7 @@
         <v>3524494.8488999987</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>36616000</v>
       </c>
@@ -4712,20 +5976,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
@@ -4740,10 +6005,15 @@
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="22" max="22" width="28.7109375" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4807,8 +6077,20 @@
       <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>22719000</v>
       </c>
@@ -4872,8 +6154,22 @@
       <c r="U2" s="13">
         <v>356159.95995556167</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" s="11">
+        <v>-86.789999999999921</v>
+      </c>
+      <c r="W2" s="16">
+        <v>-50.299999999999933</v>
+      </c>
+      <c r="X2" s="11">
+        <f t="shared" ref="X2:X31" si="0">IF(W2&gt;E2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>IF(W2&gt;V2,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>3639000</v>
       </c>
@@ -4937,8 +6233,22 @@
       <c r="U3" s="13">
         <v>18702978.115983784</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="11">
+        <v>14.580000000000011</v>
+      </c>
+      <c r="W3" s="16">
+        <v>-82.33</v>
+      </c>
+      <c r="X3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="15">
+        <f>IF(W3&gt;V3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3657000</v>
       </c>
@@ -5002,8 +6312,22 @@
       <c r="U4" s="13">
         <v>23228394.098859005</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="11">
+        <v>-53.44</v>
+      </c>
+      <c r="W4" s="16">
+        <v>116.78</v>
+      </c>
+      <c r="X4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" ref="Y4:Y31" si="1">IF(W4&gt;V4,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>14625000</v>
       </c>
@@ -5067,8 +6391,22 @@
       <c r="U5" s="13">
         <v>2603925.131103361</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="11">
+        <v>-13.86999999999999</v>
+      </c>
+      <c r="W5" s="16">
+        <v>-35.789999999999992</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>18610000</v>
       </c>
@@ -5132,8 +6470,22 @@
       <c r="U6" s="13">
         <v>9261078.9064769875</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="11">
+        <v>-195.4399999999998</v>
+      </c>
+      <c r="W6" s="16">
+        <v>-113.29</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1703000</v>
       </c>
@@ -5197,8 +6549,22 @@
       <c r="U7" s="13">
         <v>6244959.3830651175</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="11">
+        <v>-115.3</v>
+      </c>
+      <c r="W7" s="11">
+        <v>-126.93000000000011</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1716000</v>
       </c>
@@ -5262,8 +6628,22 @@
       <c r="U8" s="13">
         <v>17700089.625400923</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="11">
+        <v>-170.90000000000009</v>
+      </c>
+      <c r="W8" s="11">
+        <v>-125.5500000000001</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>10615000</v>
       </c>
@@ -5327,8 +6707,22 @@
       <c r="U9" s="13">
         <v>5837841.9366662949</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="11">
+        <v>-243.18999999999971</v>
+      </c>
+      <c r="W9" s="11">
+        <v>-198.42999999999989</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>10710000</v>
       </c>
@@ -5392,8 +6786,22 @@
       <c r="U10" s="13">
         <v>9740873.2307771854</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="11">
+        <v>-262.89000000000021</v>
+      </c>
+      <c r="W10" s="11">
+        <v>-311.97000000000003</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>18715000</v>
       </c>
@@ -5457,8 +6865,22 @@
       <c r="U11" s="13">
         <v>14464008.469065005</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="11">
+        <v>-188.31</v>
+      </c>
+      <c r="W11" s="11">
+        <v>-150.56</v>
+      </c>
+      <c r="X11" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1606000</v>
       </c>
@@ -5522,8 +6944,22 @@
       <c r="U12" s="13">
         <v>286032.99613732687</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="11">
+        <v>-141.7799999999998</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-138.43999999999991</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1620000</v>
       </c>
@@ -5587,8 +7023,22 @@
       <c r="U13" s="13">
         <v>1832988.2302829542</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="11">
+        <v>-155.09999999999991</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-133.63</v>
+      </c>
+      <c r="X13" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1719000</v>
       </c>
@@ -5652,8 +7102,22 @@
       <c r="U14" s="13">
         <v>2408571.3178105522</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="11">
+        <v>-197.8</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-169.22</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>4621000</v>
       </c>
@@ -5717,8 +7181,22 @@
       <c r="U15" s="13">
         <v>4328559.1604477121</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="11">
+        <v>-149.20999999999989</v>
+      </c>
+      <c r="W15" s="11">
+        <v>-192.99</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>36616000</v>
       </c>
@@ -5782,8 +7260,22 @@
       <c r="U16" s="13">
         <v>2294824.0449553295</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="11">
+        <v>-143.57</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-113.56</v>
+      </c>
+      <c r="X16" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1641000</v>
       </c>
@@ -5847,8 +7339,22 @@
       <c r="U17" s="13">
         <v>1122077.8321941854</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="11">
+        <v>-79.469999999999956</v>
+      </c>
+      <c r="W17" s="11">
+        <v>-1.489999999999982</v>
+      </c>
+      <c r="X17" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3630000</v>
       </c>
@@ -5912,8 +7418,22 @@
       <c r="U18" s="13">
         <v>14264173.483645547</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="11">
+        <v>-200.74000000000021</v>
+      </c>
+      <c r="W18" s="11">
+        <v>157.88999999999999</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18652000</v>
       </c>
@@ -5977,8 +7497,22 @@
       <c r="U19" s="13">
         <v>482329.48363598721</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="11">
+        <v>-168.0500000000001</v>
+      </c>
+      <c r="W19" s="11">
+        <v>-121.56</v>
+      </c>
+      <c r="X19" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>22712000</v>
       </c>
@@ -6042,8 +7576,22 @@
       <c r="U20" s="13">
         <v>40371896.324514598</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="11">
+        <v>-36.529999999999987</v>
+      </c>
+      <c r="W20" s="11">
+        <v>-8.0399999999999814</v>
+      </c>
+      <c r="X20" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>53725000</v>
       </c>
@@ -6107,8 +7655,22 @@
       <c r="U21" s="13">
         <v>5608681.5484265415</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="11">
+        <v>-44.29999999999999</v>
+      </c>
+      <c r="W21" s="11">
+        <v>23.47999999999999</v>
+      </c>
+      <c r="X21" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1706000</v>
       </c>
@@ -6172,8 +7734,22 @@
       <c r="U22" s="13">
         <v>36698725.509738542</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="11">
+        <v>-129.7299999999999</v>
+      </c>
+      <c r="W22" s="11">
+        <v>-98.72</v>
+      </c>
+      <c r="X22" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>5634000</v>
       </c>
@@ -6237,8 +7813,22 @@
       <c r="U23" s="13">
         <v>15073222.510616535</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="11">
+        <v>-250.49999999999989</v>
+      </c>
+      <c r="W23" s="11">
+        <v>-205.68999999999991</v>
+      </c>
+      <c r="X23" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>25738000</v>
       </c>
@@ -6302,8 +7892,22 @@
       <c r="U24" s="13">
         <v>42433907.62955901</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="11">
+        <v>-252.35000000000039</v>
+      </c>
+      <c r="W24" s="11">
+        <v>-155.62</v>
+      </c>
+      <c r="X24" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>36704000</v>
       </c>
@@ -6367,8 +7971,22 @@
       <c r="U25" s="13">
         <v>36383677.220934838</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="11">
+        <v>-348.47000000000031</v>
+      </c>
+      <c r="W25" s="11">
+        <v>-93.860000000000028</v>
+      </c>
+      <c r="X25" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>65753000</v>
       </c>
@@ -6432,8 +8050,22 @@
       <c r="U26" s="13">
         <v>89911704.287623957</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="11">
+        <v>-166.34999999999991</v>
+      </c>
+      <c r="W26" s="11">
+        <v>-177.25</v>
+      </c>
+      <c r="X26" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>1625000</v>
       </c>
@@ -6497,8 +8129,22 @@
       <c r="U27" s="13">
         <v>1155335.2855618461</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="11">
+        <v>-252.85000000000011</v>
+      </c>
+      <c r="W27" s="11">
+        <v>-114.89</v>
+      </c>
+      <c r="X27" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>3654000</v>
       </c>
@@ -6562,8 +8208,22 @@
       <c r="U28" s="13">
         <v>27065491.890230715</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="11">
+        <v>-124.8</v>
+      </c>
+      <c r="W28" s="11">
+        <v>-21.41</v>
+      </c>
+      <c r="X28" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>4722000</v>
       </c>
@@ -6627,8 +8287,22 @@
       <c r="U29" s="13">
         <v>13159071.296912728</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="11">
+        <v>-181.38000000000011</v>
+      </c>
+      <c r="W29" s="11">
+        <v>-229.78999999999991</v>
+      </c>
+      <c r="X29" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>7726000</v>
       </c>
@@ -6692,8 +8366,22 @@
       <c r="U30" s="13">
         <v>9808902.6612626221</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="11">
+        <v>-246.49000000000029</v>
+      </c>
+      <c r="W30" s="11">
+        <v>-120.91</v>
+      </c>
+      <c r="X30" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>60730000</v>
       </c>
@@ -6757,8 +8445,22 @@
       <c r="U31" s="13">
         <v>8288037.572059215</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="11">
+        <v>-269.03000000000009</v>
+      </c>
+      <c r="W31" s="11">
+        <v>-5.5499999999999989</v>
+      </c>
+      <c r="X31" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6922,9 +8624,15 @@
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="C39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -6945,9 +8653,15 @@
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="C40" s="11">
+        <v>-140</v>
+      </c>
+      <c r="D40" s="11">
+        <v>-86.789999999999921</v>
+      </c>
+      <c r="E40" s="16">
+        <v>-50.299999999999933</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -6968,9 +8682,15 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="C41" s="11">
+        <v>-476</v>
+      </c>
+      <c r="D41" s="11">
+        <v>14.580000000000011</v>
+      </c>
+      <c r="E41" s="16">
+        <v>-82.33</v>
+      </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -6991,9 +8711,15 @@
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="C42" s="11">
+        <v>-898</v>
+      </c>
+      <c r="D42" s="11">
+        <v>-53.44</v>
+      </c>
+      <c r="E42" s="16">
+        <v>116.78</v>
+      </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -7011,8 +8737,306 @@
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
     </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="11">
+        <v>-166</v>
+      </c>
+      <c r="D43" s="11">
+        <v>-13.86999999999999</v>
+      </c>
+      <c r="E43" s="16">
+        <v>-35.789999999999992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C44" s="11">
+        <v>-210</v>
+      </c>
+      <c r="D44" s="11">
+        <v>-195.4399999999998</v>
+      </c>
+      <c r="E44" s="16">
+        <v>-113.29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C45" s="11">
+        <v>-291</v>
+      </c>
+      <c r="D45" s="11">
+        <v>-115.3</v>
+      </c>
+      <c r="E45" s="11">
+        <v>-126.93000000000011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C46" s="11">
+        <v>-284</v>
+      </c>
+      <c r="D46" s="11">
+        <v>-170.90000000000009</v>
+      </c>
+      <c r="E46" s="11">
+        <v>-125.5500000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C47" s="11">
+        <v>-274</v>
+      </c>
+      <c r="D47" s="11">
+        <v>-243.18999999999971</v>
+      </c>
+      <c r="E47" s="11">
+        <v>-198.42999999999989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C48" s="11">
+        <v>-340</v>
+      </c>
+      <c r="D48" s="11">
+        <v>-262.89000000000021</v>
+      </c>
+      <c r="E48" s="11">
+        <v>-311.97000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="11">
+        <v>-825</v>
+      </c>
+      <c r="D49" s="11">
+        <v>-188.31</v>
+      </c>
+      <c r="E49" s="11">
+        <v>-150.56</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="11">
+        <v>-168</v>
+      </c>
+      <c r="D50" s="11">
+        <v>-141.7799999999998</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-138.43999999999991</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="11">
+        <v>-174</v>
+      </c>
+      <c r="D51" s="11">
+        <v>-155.09999999999991</v>
+      </c>
+      <c r="E51" s="11">
+        <v>-133.63</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="11">
+        <v>-193</v>
+      </c>
+      <c r="D52" s="11">
+        <v>-197.8</v>
+      </c>
+      <c r="E52" s="11">
+        <v>-169.22</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="11">
+        <v>-121</v>
+      </c>
+      <c r="D53" s="11">
+        <v>-149.20999999999989</v>
+      </c>
+      <c r="E53" s="11">
+        <v>-192.99</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="11">
+        <v>-158</v>
+      </c>
+      <c r="D54" s="11">
+        <v>-143.57</v>
+      </c>
+      <c r="E54" s="11">
+        <v>-113.56</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="11">
+        <v>-76</v>
+      </c>
+      <c r="D55" s="11">
+        <v>-79.469999999999956</v>
+      </c>
+      <c r="E55" s="11">
+        <v>-1.489999999999982</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="11">
+        <v>-953</v>
+      </c>
+      <c r="D56" s="11">
+        <v>-200.74000000000021</v>
+      </c>
+      <c r="E56" s="11">
+        <v>157.88999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="11">
+        <v>-188</v>
+      </c>
+      <c r="D57" s="11">
+        <v>-168.0500000000001</v>
+      </c>
+      <c r="E57" s="11">
+        <v>-121.56</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="11">
+        <v>-483</v>
+      </c>
+      <c r="D58" s="11">
+        <v>-36.529999999999987</v>
+      </c>
+      <c r="E58" s="11">
+        <v>-8.0399999999999814</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="11">
+        <v>-523</v>
+      </c>
+      <c r="D59" s="11">
+        <v>-44.29999999999999</v>
+      </c>
+      <c r="E59" s="11">
+        <v>23.47999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="11">
+        <v>-199</v>
+      </c>
+      <c r="D60" s="11">
+        <v>-129.7299999999999</v>
+      </c>
+      <c r="E60" s="11">
+        <v>-98.72</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="11">
+        <v>-310</v>
+      </c>
+      <c r="D61" s="11">
+        <v>-250.49999999999989</v>
+      </c>
+      <c r="E61" s="11">
+        <v>-205.68999999999991</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="11">
+        <v>-236</v>
+      </c>
+      <c r="D62" s="11">
+        <v>-252.35000000000039</v>
+      </c>
+      <c r="E62" s="11">
+        <v>-155.62</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="11">
+        <v>-472</v>
+      </c>
+      <c r="D63" s="11">
+        <v>-348.47000000000031</v>
+      </c>
+      <c r="E63" s="11">
+        <v>-93.860000000000028</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="11">
+        <v>-402</v>
+      </c>
+      <c r="D64" s="11">
+        <v>-166.34999999999991</v>
+      </c>
+      <c r="E64" s="11">
+        <v>-177.25</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="11">
+        <v>-294</v>
+      </c>
+      <c r="D65" s="11">
+        <v>-252.85000000000011</v>
+      </c>
+      <c r="E65" s="11">
+        <v>-114.89</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="11">
+        <v>-541</v>
+      </c>
+      <c r="D66" s="11">
+        <v>-124.8</v>
+      </c>
+      <c r="E66" s="11">
+        <v>-21.41</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="11">
+        <v>-192</v>
+      </c>
+      <c r="D67" s="11">
+        <v>-181.38000000000011</v>
+      </c>
+      <c r="E67" s="11">
+        <v>-229.78999999999991</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="11">
+        <v>-300</v>
+      </c>
+      <c r="D68" s="11">
+        <v>-246.49000000000029</v>
+      </c>
+      <c r="E68" s="11">
+        <v>-120.91</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="11">
+        <v>-429</v>
+      </c>
+      <c r="D69" s="11">
+        <v>-269.03000000000009</v>
+      </c>
+      <c r="E69" s="11">
+        <v>-5.5499999999999989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>